--- a/Test Generator - StreamLine Web Automator/config/config.xlsx
+++ b/Test Generator - StreamLine Web Automator/config/config.xlsx
@@ -5,16 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\StreamLineQA-Automation\Test Generator - StreamLine Web Automator\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\StreamLineQA-Automation-Test\Test Generator - StreamLine Web Automator\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC4EEF1-41B8-4713-8475-4824CDC83321}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA440C1A-970F-4E2D-8C0F-93E586628748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config File Example" sheetId="1" r:id="rId1"/>
-    <sheet name="license key" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -121,44 +120,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Admin</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{2511E00D-A8F6-403F-90E7-1EF239CD52ED}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter your email address here. This is mandatory even for the trial version</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{D442C73A-0FB2-4399-9AB5-65632B22364C}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter your license key here. You can leave this blank if you're on the trial version</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>url</t>
   </si>
@@ -228,18 +191,12 @@
   <si>
     <t>#smg-homepage &gt; div &gt; div &gt; div &gt; section.disclaimer.section.aem-GridColumn.aem-GridColumn--default--12</t>
   </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>License Key</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -270,20 +227,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,12 +239,6 @@
       <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor rgb="FFB7B7B7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -315,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -323,7 +262,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -28224,33 +28162,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9033FC-7333-4089-B6D7-4514D7DD31FB}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>